--- a/xlsx/新加坡_intext.xlsx
+++ b/xlsx/新加坡_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_新加坡</t>
+    <t>体育运动_体育运动_奥林匹克运动会_新加坡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%9B%BD%E6%97%97</t>
